--- a/sunbird.proto/site devolopment/New dev required/Waranty Details.xlsx
+++ b/sunbird.proto/site devolopment/New dev required/Waranty Details.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27424"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="482" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3D443D8-CA01-4F3B-8BF0-C8BFD3DDAFE5}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\TLCDev\WordPress\sunbird\sunbird.proto\site devolopment\New dev required\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E61CA39-DDA1-4B89-A93B-161A54E18E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1590" yWindow="3390" windowWidth="23820" windowHeight="13845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="179">
   <si>
     <t>Maximum</t>
   </si>
@@ -535,13 +540,49 @@
   </si>
   <si>
     <t>4000x 1200</t>
+  </si>
+  <si>
+    <t>hw-capacity</t>
+  </si>
+  <si>
+    <t>hw-type</t>
+  </si>
+  <si>
+    <t>hw-usage</t>
+  </si>
+  <si>
+    <t>hw-pressbearable</t>
+  </si>
+  <si>
+    <t>hw-waterqlty</t>
+  </si>
+  <si>
+    <t>hw-syswarranty</t>
+  </si>
+  <si>
+    <t>hw-pumpandstationwarranty</t>
+  </si>
+  <si>
+    <t>hw-totarea</t>
+  </si>
+  <si>
+    <t>hw-hewarranty</t>
+  </si>
+  <si>
+    <t>hw-grosskg</t>
+  </si>
+  <si>
+    <t>Sqm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -563,13 +604,27 @@
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -584,7 +639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -599,7 +654,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,9 +686,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -658,7 +726,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -764,7 +832,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -906,7 +974,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -914,29 +982,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:R43"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M37" workbookViewId="0">
-      <selection activeCell="P53" sqref="P53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7" style="4" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="27.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K2" s="1" t="s">
         <v>0</v>
       </c>
@@ -955,7 +1069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K3" s="1" t="s">
         <v>5</v>
       </c>
@@ -981,7 +1095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1024,8 +1138,11 @@
       <c r="R4" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
@@ -1060,51 +1177,51 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B6" s="8" t="str">
         <f t="shared" ref="B6:B9" si="0">SUBSTITUTE(C6, "Li", "FTP")</f>
         <v>FTP 75</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="9">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="10">
         <v>1</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N6" t="s">
-        <v>42</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="N6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" s="8" t="s">
         <v>43</v>
       </c>
       <c r="P6" t="s">
@@ -1113,52 +1230,56 @@
       <c r="Q6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6" s="12">
+        <f>1.73*0.91</f>
+        <v>1.5743</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B7" t="str">
+      <c r="B7" s="8" t="str">
         <f t="shared" si="0"/>
         <v>FTP 100</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="9">
         <v>3</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="10">
         <v>1</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N7" t="s">
-        <v>42</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="N7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="8" t="s">
         <v>43</v>
       </c>
       <c r="P7" t="s">
@@ -1167,52 +1288,56 @@
       <c r="Q7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" s="12">
+        <f>2.34*1.1</f>
+        <v>2.5739999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>3</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>FTP 150</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="9">
         <v>4</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="10">
         <v>1</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N8" t="s">
-        <v>42</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="N8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" s="8" t="s">
         <v>43</v>
       </c>
       <c r="P8" t="s">
@@ -1221,52 +1346,56 @@
       <c r="Q8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" s="12">
+        <f>2.34*1.37</f>
+        <v>3.2058</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>4</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>FTP 225</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="9">
         <v>6</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="10">
         <v>2</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N9" t="s">
-        <v>42</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="N9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" s="8" t="s">
         <v>43</v>
       </c>
       <c r="P9" t="s">
@@ -1275,51 +1404,55 @@
       <c r="Q9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" s="12">
+        <f>2.34*1.98</f>
+        <v>4.6331999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>5</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="9">
         <v>8</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="10">
         <v>2</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N10" t="s">
-        <v>42</v>
-      </c>
-      <c r="O10" t="s">
+      <c r="N10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" s="8" t="s">
         <v>43</v>
       </c>
       <c r="P10" t="s">
@@ -1328,51 +1461,55 @@
       <c r="Q10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" s="12">
+        <f>2.34*2.6</f>
+        <v>6.0839999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>6</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="9">
         <v>12</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="10">
         <v>2</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N11" t="s">
-        <v>42</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="N11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O11" s="8" t="s">
         <v>43</v>
       </c>
       <c r="P11" t="s">
@@ -1381,51 +1518,58 @@
       <c r="Q11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S11" s="12">
+        <f>2.49*2.6</f>
+        <v>6.4740000000000011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S12" s="12"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>7</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="9">
         <v>2</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="10">
         <v>8</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N13" t="s">
-        <v>42</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="N13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O13" s="8" t="s">
         <v>79</v>
       </c>
       <c r="P13" t="s">
@@ -1434,51 +1578,55 @@
       <c r="Q13" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" s="12">
+        <f>2.41*0.76</f>
+        <v>1.8316000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>8</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="9">
         <v>3</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="10">
         <v>10</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N14" t="s">
-        <v>42</v>
-      </c>
-      <c r="O14" t="s">
+      <c r="N14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14" s="8" t="s">
         <v>79</v>
       </c>
       <c r="P14" t="s">
@@ -1487,51 +1635,55 @@
       <c r="Q14" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14" s="12">
+        <f>2.41*1.1</f>
+        <v>2.6510000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>9</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="9">
         <v>4</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="10">
         <v>15</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N15" t="s">
-        <v>42</v>
-      </c>
-      <c r="O15" t="s">
+      <c r="N15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O15" s="8" t="s">
         <v>79</v>
       </c>
       <c r="P15" t="s">
@@ -1540,51 +1692,55 @@
       <c r="Q15" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="S15" s="12">
+        <f>2.41*1.37</f>
+        <v>3.3017000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>10</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="9">
         <v>6</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="10">
         <v>20</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N16" t="s">
-        <v>42</v>
-      </c>
-      <c r="O16" t="s">
+      <c r="N16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O16" s="8" t="s">
         <v>79</v>
       </c>
       <c r="P16" t="s">
@@ -1593,51 +1749,55 @@
       <c r="Q16" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="S16" s="12">
+        <f>2.41*1.98</f>
+        <v>4.7717999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>11</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="9">
         <v>8</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="10">
         <v>30</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N17" t="s">
-        <v>42</v>
-      </c>
-      <c r="O17" t="s">
+      <c r="N17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O17" s="8" t="s">
         <v>79</v>
       </c>
       <c r="P17" t="s">
@@ -1646,51 +1806,58 @@
       <c r="Q17" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="S17" s="12">
+        <f>2.41*2.6</f>
+        <v>6.2660000000000009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S18" s="12"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>12</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="9">
         <v>2</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="10">
         <v>8</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N19" t="s">
-        <v>42</v>
-      </c>
-      <c r="O19" t="s">
+      <c r="N19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O19" s="8" t="s">
         <v>43</v>
       </c>
       <c r="P19" t="s">
@@ -1699,51 +1866,55 @@
       <c r="Q19" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="S19" s="12">
+        <f>2.41*0.76</f>
+        <v>1.8316000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>13</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="9">
         <v>3</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="10">
         <v>10</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N20" t="s">
-        <v>42</v>
-      </c>
-      <c r="O20" t="s">
+      <c r="N20" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O20" s="8" t="s">
         <v>43</v>
       </c>
       <c r="P20" t="s">
@@ -1752,51 +1923,55 @@
       <c r="Q20" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="S20" s="12">
+        <f>2.41*1.1</f>
+        <v>2.6510000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>14</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="9">
         <v>4</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="10">
         <v>15</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N21" t="s">
-        <v>42</v>
-      </c>
-      <c r="O21" t="s">
+      <c r="N21" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O21" s="8" t="s">
         <v>43</v>
       </c>
       <c r="P21" t="s">
@@ -1805,51 +1980,55 @@
       <c r="Q21" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="S21" s="12">
+        <f>2.41*1.37</f>
+        <v>3.3017000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>15</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="9">
         <v>6</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="10">
         <v>20</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N22" t="s">
-        <v>42</v>
-      </c>
-      <c r="O22" t="s">
+      <c r="N22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O22" s="8" t="s">
         <v>43</v>
       </c>
       <c r="P22" t="s">
@@ -1858,51 +2037,55 @@
       <c r="Q22" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="S22" s="12">
+        <f>2.41*1.98</f>
+        <v>4.7717999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>16</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="9">
         <v>8</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="10">
         <v>30</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N23" t="s">
-        <v>42</v>
-      </c>
-      <c r="O23" t="s">
+      <c r="N23" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O23" s="8" t="s">
         <v>43</v>
       </c>
       <c r="P23" t="s">
@@ -1911,51 +2094,55 @@
       <c r="Q23" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="S23" s="12">
+        <f>2.41*2.6</f>
+        <v>6.2660000000000009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>17</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="9">
         <v>12</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="10">
         <v>30</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N24" t="s">
-        <v>42</v>
-      </c>
-      <c r="O24" t="s">
+      <c r="N24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O24" s="8" t="s">
         <v>43</v>
       </c>
       <c r="P24" t="s">
@@ -1964,51 +2151,58 @@
       <c r="Q24" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="S24" s="12">
+        <f>2.56*2.6</f>
+        <v>6.6560000000000006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S25" s="12"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>18</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="9">
         <v>2</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="10">
         <v>8</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L26" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M26" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N26" t="s">
-        <v>42</v>
-      </c>
-      <c r="O26" t="s">
+      <c r="N26" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O26" s="8" t="s">
         <v>79</v>
       </c>
       <c r="P26" t="s">
@@ -2017,51 +2211,55 @@
       <c r="Q26" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="S26" s="12">
+        <f>2.41*0.76</f>
+        <v>1.8316000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>19</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="9">
         <v>3</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="10">
         <v>10</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L27" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N27" t="s">
-        <v>42</v>
-      </c>
-      <c r="O27" t="s">
+      <c r="N27" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O27" s="8" t="s">
         <v>79</v>
       </c>
       <c r="P27" t="s">
@@ -2070,51 +2268,55 @@
       <c r="Q27" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="S27" s="12">
+        <f>2.41*1.1</f>
+        <v>2.6510000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>20</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="9">
         <v>4</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="10">
         <v>15</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L28" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N28" t="s">
-        <v>42</v>
-      </c>
-      <c r="O28" t="s">
+      <c r="N28" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O28" s="8" t="s">
         <v>79</v>
       </c>
       <c r="P28" t="s">
@@ -2123,51 +2325,55 @@
       <c r="Q28" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="S28" s="12">
+        <f>2.41*1.37</f>
+        <v>3.3017000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>21</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="9">
         <v>6</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="10">
         <v>20</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L29" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N29" t="s">
-        <v>42</v>
-      </c>
-      <c r="O29" t="s">
+      <c r="N29" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O29" s="8" t="s">
         <v>79</v>
       </c>
       <c r="P29" t="s">
@@ -2176,51 +2382,55 @@
       <c r="Q29" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="S29" s="12">
+        <f>2.41*1.98</f>
+        <v>4.7717999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>22</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="9">
         <v>8</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="10">
         <v>30</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L30" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N30" t="s">
-        <v>42</v>
-      </c>
-      <c r="O30" t="s">
+      <c r="N30" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O30" s="8" t="s">
         <v>79</v>
       </c>
       <c r="P30" t="s">
@@ -2229,52 +2439,59 @@
       <c r="Q30" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="32" spans="1:17">
+      <c r="S30" s="12">
+        <f>2.41*2.6</f>
+        <v>6.2660000000000009</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S31" s="12"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <f>A30+1</f>
         <v>23</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="9">
         <v>2</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="10">
         <v>1</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J32" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L32" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M32" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="N32" t="s">
-        <v>42</v>
-      </c>
-      <c r="O32" t="s">
+      <c r="N32" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O32" s="8" t="s">
         <v>133</v>
       </c>
       <c r="P32" t="s">
@@ -2283,52 +2500,56 @@
       <c r="Q32" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="33" spans="1:18">
+      <c r="S32" s="12">
+        <f>2.34*1.1</f>
+        <v>2.5739999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <f>A32+1</f>
         <v>24</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="9">
         <v>4</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="10">
         <v>1</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K33" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L33" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M33" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="N33" t="s">
-        <v>42</v>
-      </c>
-      <c r="O33" t="s">
+      <c r="N33" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O33" s="8" t="s">
         <v>133</v>
       </c>
       <c r="P33" t="s">
@@ -2337,52 +2558,56 @@
       <c r="Q33" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="34" spans="1:18">
+      <c r="S33" s="12">
+        <f>2.34*1.37</f>
+        <v>3.2058</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <f t="shared" ref="A34:A35" si="1">A33+1</f>
         <v>25</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="9">
         <v>6</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="10">
         <v>2</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J34" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K34" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L34" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M34" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="N34" t="s">
-        <v>42</v>
-      </c>
-      <c r="O34" t="s">
+      <c r="N34" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O34" s="8" t="s">
         <v>133</v>
       </c>
       <c r="P34" t="s">
@@ -2391,52 +2616,56 @@
       <c r="Q34" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="35" spans="1:18">
+      <c r="S34" s="12">
+        <f>2.34*1.98</f>
+        <v>4.6331999999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="9">
         <v>8</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="10">
         <v>2</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J35" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K35" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L35" t="s">
+      <c r="L35" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M35" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="N35" t="s">
-        <v>42</v>
-      </c>
-      <c r="O35" t="s">
+      <c r="N35" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O35" s="8" t="s">
         <v>133</v>
       </c>
       <c r="P35" t="s">
@@ -2445,308 +2674,348 @@
       <c r="Q35" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="37" spans="1:18">
+      <c r="S35" s="13">
+        <f>2.34*1.98</f>
+        <v>4.6331999999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S36" s="12"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <f>A35+1</f>
         <v>27</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="9">
         <v>3</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="10">
         <v>9</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="L37" t="s">
+      <c r="K37" s="8"/>
+      <c r="L37" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M37" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="N37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O37" t="s">
+      <c r="N37" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O37" s="8" t="s">
         <v>133</v>
       </c>
       <c r="P37" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="38" spans="1:18">
+      <c r="S37" s="12">
+        <f>2.41*1.1</f>
+        <v>2.6510000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <f>A37+1</f>
         <v>28</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="9">
         <v>4</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="10">
         <v>14</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J38" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="L38" t="s">
+      <c r="K38" s="8"/>
+      <c r="L38" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M38" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="N38" t="s">
-        <v>42</v>
-      </c>
-      <c r="O38" t="s">
+      <c r="N38" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O38" s="8" t="s">
         <v>133</v>
       </c>
       <c r="P38" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="39" spans="1:18">
+      <c r="S38" s="12">
+        <f>2.41*1.37</f>
+        <v>3.3017000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <f>A38+1</f>
         <v>29</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="9">
         <v>6</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="10">
         <v>19</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J39" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="L39" t="s">
+      <c r="K39" s="8"/>
+      <c r="L39" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M39" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="N39" t="s">
-        <v>42</v>
-      </c>
-      <c r="O39" t="s">
+      <c r="N39" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O39" s="8" t="s">
         <v>133</v>
       </c>
       <c r="P39" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" ht="15.75">
+      <c r="S39" s="12">
+        <f>2.41*1.98</f>
+        <v>4.7717999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S40" s="12"/>
+    </row>
+    <row r="41" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>30</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="9">
         <v>4</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="10">
         <v>2</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J41" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K41" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="L41" t="s">
+      <c r="L41" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M41" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="N41" t="s">
-        <v>42</v>
-      </c>
-      <c r="O41" t="s">
+      <c r="N41" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O41" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="P41" s="6" t="s">
+      <c r="P41" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="R41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" ht="15.75">
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="S41" s="12">
+        <f>2*1.2</f>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>31</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="9">
         <v>6</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="10">
         <v>3</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="J42" t="s">
+      <c r="J42" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="K42" t="s">
+      <c r="K42" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="L42" t="s">
+      <c r="L42" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="M42" t="s">
+      <c r="M42" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="N42" t="s">
-        <v>42</v>
-      </c>
-      <c r="O42" t="s">
+      <c r="N42" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O42" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="P42" s="6" t="s">
+      <c r="P42" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="R42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" ht="15.75">
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="S42" s="12">
+        <f>3*1.2</f>
+        <v>3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>32</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="9">
         <v>8</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="10">
         <v>4</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J43" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="K43" t="s">
+      <c r="K43" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="L43" t="s">
+      <c r="L43" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="M43" t="s">
+      <c r="M43" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="N43" t="s">
-        <v>42</v>
-      </c>
-      <c r="O43" t="s">
+      <c r="N43" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O43" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="P43" s="6" t="s">
+      <c r="P43" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="R43" t="s">
-        <v>42</v>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="S43" s="12">
+        <f>4*1.2</f>
+        <v>4.8</v>
       </c>
     </row>
   </sheetData>
